--- a/Hybrid_framework_web/test_data/product_test_data.xlsx
+++ b/Hybrid_framework_web/test_data/product_test_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup Folders\Proposal\Python skills\Hybrid_framework_web\Hybrid_framework_web\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA55C01-5738-4196-9CCF-66CA120F9822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857B9CA-B2E1-4A66-BD71-B3ADD2AB37FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_add_jacket_product" sheetId="1" r:id="rId1"/>
-    <sheet name="test_invalid_profile_upload" sheetId="2" r:id="rId2"/>
+    <sheet name="test_shipping_address" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
@@ -30,34 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Upload File Detail</t>
-  </si>
-  <si>
-    <t>Expected Error</t>
-  </si>
-  <si>
-    <t>C:\Mine\Balaji-Profile_2023.pdf</t>
-  </si>
-  <si>
-    <t>C:\Mine\iFuture.txt</t>
-  </si>
-  <si>
-    <t>File type not allowed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Jacket</t>
   </si>
@@ -75,6 +48,51 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Phonenumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAULIN </t>
+  </si>
+  <si>
+    <t>DESAI</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>BENTON</t>
+  </si>
+  <si>
+    <t>PETER</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Alabama</t>
   </si>
 </sst>
 </file>
@@ -394,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,26 +429,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -440,57 +458,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>1234567890</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>1234567890</v>
       </c>
     </row>
   </sheetData>
